--- a/doc/surveys/option_list.xlsx
+++ b/doc/surveys/option_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="220">
   <si>
     <t>form_id</t>
   </si>
@@ -148,9 +148,24 @@
     <t>hch_cleaning_protocols</t>
   </si>
   <si>
+    <t>S_water_source</t>
+  </si>
+  <si>
+    <t>S_water_available</t>
+  </si>
+  <si>
+    <t>ss_toilet_type</t>
+  </si>
+  <si>
+    <t>ss_latrine_use</t>
+  </si>
+  <si>
     <t>hch_cleaningstaff_trained</t>
   </si>
   <si>
+    <t>ss_gender_separated</t>
+  </si>
+  <si>
     <t>Own toilet only shared by members of the household</t>
   </si>
   <si>
@@ -442,6 +457,51 @@
     <t>Yes, water and soap</t>
   </si>
   <si>
+    <t>No water source</t>
+  </si>
+  <si>
+    <t>Packaged bottled water</t>
+  </si>
+  <si>
+    <t>Piped water supply</t>
+  </si>
+  <si>
+    <t>Protected well/spring</t>
+  </si>
+  <si>
+    <t>Rainwater</t>
+  </si>
+  <si>
+    <t>Surface water (lake, river, stream)</t>
+  </si>
+  <si>
+    <t>Tanker-truck or cart</t>
+  </si>
+  <si>
+    <t>Unprotected well/spring</t>
+  </si>
+  <si>
+    <t>Bucket latrines</t>
+  </si>
+  <si>
+    <t>Composting toilets</t>
+  </si>
+  <si>
+    <t>Flush / Pour-flush toilets</t>
+  </si>
+  <si>
+    <t>Hanging latrines</t>
+  </si>
+  <si>
+    <t>No toilets or latrines</t>
+  </si>
+  <si>
+    <t>Pit latrines with slab</t>
+  </si>
+  <si>
+    <t>Pit latrines without slab</t>
+  </si>
+  <si>
     <t>HS-1</t>
   </si>
   <si>
@@ -563,6 +623,51 @@
   </si>
   <si>
     <t>SEC-1</t>
+  </si>
+  <si>
+    <t>S-8</t>
+  </si>
+  <si>
+    <t>S-5</t>
+  </si>
+  <si>
+    <t>S-1</t>
+  </si>
+  <si>
+    <t>S-2</t>
+  </si>
+  <si>
+    <t>S-3</t>
+  </si>
+  <si>
+    <t>S-7</t>
+  </si>
+  <si>
+    <t>S-6</t>
+  </si>
+  <si>
+    <t>S-4</t>
+  </si>
+  <si>
+    <t>SS-6</t>
+  </si>
+  <si>
+    <t>SS-3</t>
+  </si>
+  <si>
+    <t>SS-1</t>
+  </si>
+  <si>
+    <t>SS-5</t>
+  </si>
+  <si>
+    <t>SS-7</t>
+  </si>
+  <si>
+    <t>SS-2</t>
+  </si>
+  <si>
+    <t>SS-4</t>
   </si>
   <si>
     <t>SEC-3</t>
@@ -926,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E144"/>
+  <dimension ref="A2:E165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -960,10 +1065,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -971,10 +1076,10 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -982,10 +1087,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -997,10 +1102,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1008,10 +1113,10 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1019,10 +1124,10 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1030,10 +1135,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1041,10 +1146,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1056,10 +1161,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1067,10 +1172,10 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1082,10 +1187,10 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1093,10 +1198,10 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1108,10 +1213,10 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1119,10 +1224,10 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1130,10 +1235,10 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1141,10 +1246,10 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1152,10 +1257,10 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1163,10 +1268,10 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1174,10 +1279,10 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1185,10 +1290,10 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1196,10 +1301,10 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1211,10 +1316,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1222,10 +1327,10 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1237,10 +1342,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1248,10 +1353,10 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1263,10 +1368,10 @@
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1274,10 +1379,10 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1289,10 +1394,10 @@
         <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1300,10 +1405,10 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1311,10 +1416,10 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1322,10 +1427,10 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1333,10 +1438,10 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1344,10 +1449,10 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1359,10 +1464,10 @@
         <v>17</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1370,10 +1475,10 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1381,10 +1486,10 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1392,10 +1497,10 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1403,10 +1508,10 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1414,10 +1519,10 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1425,10 +1530,10 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1436,10 +1541,10 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1447,10 +1552,10 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1462,10 +1567,10 @@
         <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1473,10 +1578,10 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1488,10 +1593,10 @@
         <v>19</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1499,10 +1604,10 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1514,10 +1619,10 @@
         <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1525,10 +1630,10 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1536,10 +1641,10 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1551,10 +1656,10 @@
         <v>21</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1562,10 +1667,10 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1573,10 +1678,10 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1584,10 +1689,10 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1599,10 +1704,10 @@
         <v>22</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1610,10 +1715,10 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1621,10 +1726,10 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1632,10 +1737,10 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1647,10 +1752,10 @@
         <v>23</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1658,10 +1763,10 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1669,10 +1774,10 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1680,10 +1785,10 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1695,10 +1800,10 @@
         <v>24</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1706,10 +1811,10 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1717,10 +1822,10 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1728,10 +1833,10 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1739,10 +1844,10 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1750,10 +1855,10 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1761,10 +1866,10 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1776,10 +1881,10 @@
         <v>25</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1787,10 +1892,10 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1804,10 +1909,10 @@
         <v>26</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1815,10 +1920,10 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1830,10 +1935,10 @@
         <v>27</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1841,10 +1946,10 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1852,10 +1957,10 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1863,10 +1968,10 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1874,10 +1979,10 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1885,10 +1990,10 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1896,10 +2001,10 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1907,10 +2012,10 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1918,10 +2023,10 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1933,10 +2038,10 @@
         <v>28</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1944,10 +2049,10 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1955,10 +2060,10 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1970,10 +2075,10 @@
         <v>29</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1981,10 +2086,10 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1996,10 +2101,10 @@
         <v>30</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2007,10 +2112,10 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2018,10 +2123,10 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2029,10 +2134,10 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2040,10 +2145,10 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2051,10 +2156,10 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2062,10 +2167,10 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2073,10 +2178,10 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2084,10 +2189,10 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2099,10 +2204,10 @@
         <v>31</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2110,10 +2215,10 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2121,10 +2226,10 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2136,10 +2241,10 @@
         <v>32</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2147,10 +2252,10 @@
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2158,10 +2263,10 @@
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2169,10 +2274,10 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2184,10 +2289,10 @@
         <v>33</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2195,10 +2300,10 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2206,10 +2311,10 @@
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2217,10 +2322,10 @@
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2232,10 +2337,10 @@
         <v>34</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2243,10 +2348,10 @@
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2254,10 +2359,10 @@
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2269,10 +2374,10 @@
         <v>35</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2280,10 +2385,10 @@
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2295,10 +2400,10 @@
         <v>36</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2306,10 +2411,10 @@
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2317,10 +2422,10 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2328,10 +2433,10 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2339,10 +2444,10 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2350,10 +2455,10 @@
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2361,10 +2466,10 @@
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2372,10 +2477,10 @@
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2383,10 +2488,10 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2398,10 +2503,10 @@
         <v>37</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2409,10 +2514,10 @@
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2424,10 +2529,10 @@
         <v>38</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2435,10 +2540,10 @@
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2450,10 +2555,10 @@
         <v>39</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2461,10 +2566,10 @@
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2478,10 +2583,10 @@
         <v>40</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2489,10 +2594,10 @@
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2500,10 +2605,10 @@
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2511,10 +2616,10 @@
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2526,10 +2631,10 @@
         <v>41</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2537,10 +2642,10 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2548,10 +2653,10 @@
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2559,10 +2664,10 @@
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2574,10 +2679,10 @@
         <v>42</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2585,10 +2690,10 @@
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2600,10 +2705,10 @@
         <v>43</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2611,25 +2716,25 @@
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1"/>
       <c r="B141" s="1">
-        <v>575740004</v>
+        <v>551660011</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2637,10 +2742,10 @@
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2648,10 +2753,10 @@
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2659,17 +2764,268 @@
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>182</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1">
+        <v>551660013</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1">
+        <v>551660029</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1">
+        <v>555460003</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1">
+        <v>575740004</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1">
+        <v>579840064</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="87">
     <mergeCell ref="A3:A72"/>
     <mergeCell ref="A73:A128"/>
-    <mergeCell ref="A129:A144"/>
+    <mergeCell ref="A129:A165"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B11:B12"/>
@@ -2706,7 +3062,12 @@
     <mergeCell ref="B133:B136"/>
     <mergeCell ref="B137:B138"/>
     <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="B141:B148"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B157"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="B164:B165"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C11:C12"/>
@@ -2743,7 +3104,12 @@
     <mergeCell ref="C133:C136"/>
     <mergeCell ref="C137:C138"/>
     <mergeCell ref="C139:C140"/>
-    <mergeCell ref="C141:C144"/>
+    <mergeCell ref="C141:C148"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="C151:C157"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="C160:C163"/>
+    <mergeCell ref="C164:C165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/surveys/option_list.xlsx
+++ b/doc/surveys/option_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="227">
   <si>
     <t>form_id</t>
   </si>
@@ -94,6 +94,9 @@
     <t>MHM_privacy</t>
   </si>
   <si>
+    <t>MHM_products_use</t>
+  </si>
+  <si>
     <t>hcs_toilets_useable</t>
   </si>
   <si>
@@ -341,6 +344,24 @@
   </si>
   <si>
     <t>Participating in social activities</t>
+  </si>
+  <si>
+    <t>Cloth/reusable sanitary pads</t>
+  </si>
+  <si>
+    <t>Disposable sanitary pads</t>
+  </si>
+  <si>
+    <t>Menstrual cup</t>
+  </si>
+  <si>
+    <t>Tampons</t>
+  </si>
+  <si>
+    <t>Toilet paper</t>
+  </si>
+  <si>
+    <t>Underwear alone</t>
   </si>
   <si>
     <t>Autoclaved</t>
@@ -1031,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E165"/>
+  <dimension ref="A2:E171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1065,10 +1086,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1076,10 +1097,10 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1087,10 +1108,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1102,10 +1123,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1113,10 +1134,10 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1124,10 +1145,10 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1135,10 +1156,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1146,10 +1167,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1161,10 +1182,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1172,10 +1193,10 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1187,10 +1208,10 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1198,10 +1219,10 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1213,10 +1234,10 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1224,10 +1245,10 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1235,10 +1256,10 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1246,10 +1267,10 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1257,10 +1278,10 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1268,10 +1289,10 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1279,10 +1300,10 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1290,10 +1311,10 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1301,10 +1322,10 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1316,10 +1337,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1327,10 +1348,10 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1342,10 +1363,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1353,10 +1374,10 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1368,10 +1389,10 @@
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1379,10 +1400,10 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1394,10 +1415,10 @@
         <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1405,10 +1426,10 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1416,10 +1437,10 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1427,10 +1448,10 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1438,10 +1459,10 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1449,10 +1470,10 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1464,10 +1485,10 @@
         <v>17</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1475,10 +1496,10 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1486,10 +1507,10 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1497,10 +1518,10 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1508,10 +1529,10 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1519,10 +1540,10 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1530,10 +1551,10 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1541,10 +1562,10 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1552,10 +1573,10 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1567,10 +1588,10 @@
         <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1578,10 +1599,10 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1614,10 @@
         <v>19</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1604,10 +1625,10 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1619,10 +1640,10 @@
         <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1630,10 +1651,10 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1641,10 +1662,10 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1656,10 +1677,10 @@
         <v>21</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1667,10 +1688,10 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1678,10 +1699,10 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1689,10 +1710,10 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1704,10 +1725,10 @@
         <v>22</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1715,10 +1736,10 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1726,10 +1747,10 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1737,10 +1758,10 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1752,10 +1773,10 @@
         <v>23</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1763,10 +1784,10 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1774,10 +1795,10 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1785,10 +1806,10 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1800,10 +1821,10 @@
         <v>24</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1811,10 +1832,10 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1822,10 +1843,10 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1833,10 +1854,10 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1844,10 +1865,10 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1855,10 +1876,10 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1866,10 +1887,10 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1881,10 +1902,10 @@
         <v>25</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1892,24 +1913,22 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A73" s="1"/>
       <c r="B73" s="1">
-        <v>530250002</v>
+        <v>524810057</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>184</v>
@@ -1920,25 +1939,21 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1"/>
-      <c r="B75" s="1">
-        <v>541950005</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1946,10 +1961,10 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1957,10 +1972,10 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1968,21 +1983,27 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="1">
+        <v>530250002</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D79" s="1" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1990,21 +2011,25 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="B81" s="1">
+        <v>541950005</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D81" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2012,10 +2037,10 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2023,25 +2048,21 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1"/>
-      <c r="B84" s="1">
-        <v>541950008</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2049,10 +2070,10 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2060,25 +2081,21 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1"/>
-      <c r="B87" s="1">
-        <v>541950010</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2086,36 +2103,36 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1"/>
-      <c r="B89" s="1">
-        <v>541950011</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="B90" s="1">
+        <v>541950008</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D90" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2123,10 +2140,10 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2134,21 +2151,25 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="B93" s="1">
+        <v>541950010</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D93" s="1" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2156,21 +2177,25 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="B95" s="1">
+        <v>541950011</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D95" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2178,10 +2203,10 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2189,25 +2214,21 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1"/>
-      <c r="B98" s="1">
-        <v>551560004</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2215,10 +2236,10 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2226,25 +2247,21 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1"/>
-      <c r="B101" s="1">
-        <v>551560005</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2252,10 +2269,10 @@
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2263,36 +2280,36 @@
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="B104" s="1">
+        <v>551560004</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D104" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1"/>
-      <c r="B105" s="1">
-        <v>551560007</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2300,21 +2317,25 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
+      <c r="B107" s="1">
+        <v>551560005</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D107" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2322,25 +2343,21 @@
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1"/>
-      <c r="B109" s="1">
-        <v>551560009</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2348,36 +2365,36 @@
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
+      <c r="B111" s="1">
+        <v>551560007</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D111" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1"/>
-      <c r="B112" s="1">
-        <v>555370003</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2385,22 +2402,18 @@
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1"/>
-      <c r="B114" s="1">
-        <v>555370004</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>192</v>
@@ -2408,13 +2421,17 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
+      <c r="B115" s="1">
+        <v>551560009</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D115" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2422,10 +2439,10 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2433,21 +2450,25 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
+      <c r="B118" s="1">
+        <v>555370003</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D118" s="1" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2455,21 +2476,25 @@
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
+      <c r="B120" s="1">
+        <v>555370004</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D120" s="1" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2477,10 +2502,10 @@
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2488,25 +2513,21 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1"/>
-      <c r="B123" s="1">
-        <v>555370005</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2514,25 +2535,21 @@
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1"/>
-      <c r="B125" s="1">
-        <v>555370006</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2540,25 +2557,21 @@
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1"/>
-      <c r="B127" s="1">
-        <v>555370009</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
       <c r="D127" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2566,27 +2579,25 @@
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1">
+        <v>555370005</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B129" s="1">
-        <v>538000047</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="E129" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2594,21 +2605,25 @@
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
+      <c r="B131" s="1">
+        <v>555370006</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D131" s="1" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2616,25 +2631,25 @@
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1"/>
       <c r="B133" s="1">
-        <v>539710048</v>
+        <v>555370009</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2642,21 +2657,27 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
+      <c r="A135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="1">
+        <v>538000047</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D135" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2664,25 +2685,21 @@
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1"/>
-      <c r="B137" s="1">
-        <v>539710052</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2690,25 +2707,25 @@
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1"/>
       <c r="B139" s="1">
-        <v>545530057</v>
+        <v>539710048</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2716,25 +2733,21 @@
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1"/>
-      <c r="B141" s="1">
-        <v>551660011</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2742,21 +2755,25 @@
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
+      <c r="B143" s="1">
+        <v>539710052</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D143" s="1" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2764,21 +2781,25 @@
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
+      <c r="B145" s="1">
+        <v>545530057</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D145" s="1" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2786,21 +2807,25 @@
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
+      <c r="B147" s="1">
+        <v>551660011</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D147" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2808,25 +2833,21 @@
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1"/>
-      <c r="B149" s="1">
-        <v>551660013</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2834,25 +2855,21 @@
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1"/>
-      <c r="B151" s="1">
-        <v>551660029</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2860,10 +2877,10 @@
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2871,10 +2888,10 @@
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2882,21 +2899,25 @@
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
+      <c r="B155" s="1">
+        <v>551660013</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D155" s="1" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -2904,36 +2925,36 @@
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
+      <c r="B157" s="1">
+        <v>551660029</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D157" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1"/>
-      <c r="B158" s="1">
-        <v>555460003</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -2941,25 +2962,21 @@
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1"/>
-      <c r="B160" s="1">
-        <v>575740004</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
       <c r="D160" s="1" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -2967,10 +2984,10 @@
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -2978,10 +2995,10 @@
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -2989,25 +3006,25 @@
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1"/>
       <c r="B164" s="1">
-        <v>579840064</v>
+        <v>555460003</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3015,17 +3032,91 @@
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1">
+        <v>575740004</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1">
+        <v>579840064</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>213</v>
+      <c r="E170" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="A3:A72"/>
-    <mergeCell ref="A73:A128"/>
-    <mergeCell ref="A129:A165"/>
+  <mergeCells count="89">
+    <mergeCell ref="A3:A78"/>
+    <mergeCell ref="A79:A134"/>
+    <mergeCell ref="A135:A171"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B11:B12"/>
@@ -3044,30 +3135,31 @@
     <mergeCell ref="B60:B63"/>
     <mergeCell ref="B64:B70"/>
     <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B122"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B141:B148"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B157"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B89"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B120:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B147:B154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B157:B163"/>
     <mergeCell ref="B164:B165"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B170:B171"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C11:C12"/>
@@ -3086,30 +3178,31 @@
     <mergeCell ref="C60:C63"/>
     <mergeCell ref="C64:C70"/>
     <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C83"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C114:C122"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="C141:C148"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="C151:C157"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="C160:C163"/>
+    <mergeCell ref="C73:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C103"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C120:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C138"/>
+    <mergeCell ref="C139:C142"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C147:C154"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="C157:C163"/>
     <mergeCell ref="C164:C165"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C170:C171"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
